--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jammie\OneDrive\Coders Bookshelf\Portfolio\Data Analyst\Python_EDA_1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jammie\OneDrive\Coders Bookshelf\Portfolio\Data Analyst\survey_data_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$51</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="226">
   <si>
     <t>First_Name</t>
   </si>
@@ -66,12 +70,6 @@
     <t>Against special usually. Effort understand program. Provide around turn feel growth career road. Attention role wait whose tax hundred.</t>
   </si>
   <si>
-    <t>2007-01-06</t>
-  </si>
-  <si>
-    <t>1999-12-19</t>
-  </si>
-  <si>
     <t>Park LLC</t>
   </si>
   <si>
@@ -90,13 +88,7 @@
     <t>Full full past I consumer. Talk forget recent religious one others door will. Conference start example form Mr yard.</t>
   </si>
   <si>
-    <t>1971-08-08</t>
-  </si>
-  <si>
     <t>2006-04-24</t>
-  </si>
-  <si>
-    <t>Lawson-Glover</t>
   </si>
   <si>
     <t>North Dakota</t>
@@ -115,18 +107,6 @@
 Less drug however central. Service name front difficult value pattern activity.</t>
   </si>
   <si>
-    <t>1996-05-19</t>
-  </si>
-  <si>
-    <t>1996-07-22</t>
-  </si>
-  <si>
-    <t>Dillon, Carrillo and Collier</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Vincent</t>
   </si>
   <si>
@@ -140,12 +120,6 @@
   </si>
   <si>
     <t>2004-08-16</t>
-  </si>
-  <si>
-    <t>2010-10-31</t>
-  </si>
-  <si>
-    <t>Wilson, Lindsey and Coleman</t>
   </si>
   <si>
     <t>Rhode Island</t>
@@ -164,16 +138,7 @@
 Perform democratic their me hold building. Level world image newspaper language from old.</t>
   </si>
   <si>
-    <t>1971-11-10</t>
-  </si>
-  <si>
-    <t>1998-05-29</t>
-  </si>
-  <si>
     <t>Allen-Mcgrath</t>
-  </si>
-  <si>
-    <t>Georgia</t>
   </si>
   <si>
     <t>Karen</t>
@@ -189,18 +154,6 @@
 Reality develop like involve prove himself whatever. Different father film physical nor management least.</t>
   </si>
   <si>
-    <t>2017-01-07</t>
-  </si>
-  <si>
-    <t>1974-06-11</t>
-  </si>
-  <si>
-    <t>Greene, Shaw and West</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
     <t>Dennis</t>
   </si>
   <si>
@@ -211,15 +164,6 @@
   </si>
   <si>
     <t>Occur at somebody evidence. Lawyer ten food business kid military main scientist. Specific cover similar well.</t>
-  </si>
-  <si>
-    <t>1983-10-12</t>
-  </si>
-  <si>
-    <t>1974-05-18</t>
-  </si>
-  <si>
-    <t>Pratt, Tran and Miller</t>
   </si>
   <si>
     <t>Albert</t>
@@ -235,12 +179,6 @@
 Note plan begin then. Ready throughout perform skill material for right. Various world community now century.</t>
   </si>
   <si>
-    <t>1999-09-05</t>
-  </si>
-  <si>
-    <t>1991-07-04</t>
-  </si>
-  <si>
     <t>Brown Group</t>
   </si>
   <si>
@@ -259,16 +197,7 @@
     <t>We picture actually may major late. In young amount season in. Car if side issue continue its because service.</t>
   </si>
   <si>
-    <t>2000-05-26</t>
-  </si>
-  <si>
     <t>2020-11-28</t>
-  </si>
-  <si>
-    <t>Gaines, Davis and Wright</t>
-  </si>
-  <si>
-    <t>Maryland</t>
   </si>
   <si>
     <t>Ashley</t>
@@ -282,18 +211,6 @@
   <si>
     <t>Last bit reflect official color window. Keep artist site. Follow executive hold Republican consumer sing necessary. Ever drive must suggest social if.
 Happen lay entire as. Woman she plant economic.</t>
-  </si>
-  <si>
-    <t>1996-10-09</t>
-  </si>
-  <si>
-    <t>2016-09-26</t>
-  </si>
-  <si>
-    <t>Quinn Inc</t>
-  </si>
-  <si>
-    <t>Michigan</t>
   </si>
   <si>
     <t>Phillip</t>
@@ -310,18 +227,6 @@
 I chair song memory system professional eat. Both certain wonder. Poor including usually security.</t>
   </si>
   <si>
-    <t>1983-09-05</t>
-  </si>
-  <si>
-    <t>1970-10-12</t>
-  </si>
-  <si>
-    <t>Farley, Brown and Richards</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
     <t>Andrew</t>
   </si>
   <si>
@@ -339,13 +244,7 @@
     <t>2012-09-11</t>
   </si>
   <si>
-    <t>1980-09-28</t>
-  </si>
-  <si>
     <t>Blair Group</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
   </si>
   <si>
     <t>Adam</t>
@@ -362,18 +261,6 @@
 Wide into right fight soldier.</t>
   </si>
   <si>
-    <t>2010-12-31</t>
-  </si>
-  <si>
-    <t>1999-04-08</t>
-  </si>
-  <si>
-    <t>Olson-Webster</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
     <t>Katelyn</t>
   </si>
   <si>
@@ -387,18 +274,6 @@
 Large education these conference pretty enough police. Around when page expert land bill.</t>
   </si>
   <si>
-    <t>2005-09-22</t>
-  </si>
-  <si>
-    <t>1993-12-02</t>
-  </si>
-  <si>
-    <t>Vaughan, Garcia and Hall</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Mrs.</t>
   </si>
   <si>
@@ -412,18 +287,6 @@
 Great health against important specific. Increase the sure simple. Full article really decade write point.</t>
   </si>
   <si>
-    <t>2001-07-15</t>
-  </si>
-  <si>
-    <t>1982-09-29</t>
-  </si>
-  <si>
-    <t>Gregory-Medina</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
     <t>Heather</t>
   </si>
   <si>
@@ -437,15 +300,6 @@
 Skin best himself wonder artist close detail. Computer seven three others less.</t>
   </si>
   <si>
-    <t>1982-12-18</t>
-  </si>
-  <si>
-    <t>1981-01-09</t>
-  </si>
-  <si>
-    <t>Thomas-Tate</t>
-  </si>
-  <si>
     <t>Chloe</t>
   </si>
   <si>
@@ -458,16 +312,7 @@
     <t>Thus while nice inside former window. Institution debate skill. Chance worker century include article dark show.</t>
   </si>
   <si>
-    <t>1997-10-01</t>
-  </si>
-  <si>
-    <t>1999-07-02</t>
-  </si>
-  <si>
     <t>Avila-Parker</t>
-  </si>
-  <si>
-    <t>Florida</t>
   </si>
   <si>
     <t>William</t>
@@ -483,18 +328,6 @@
 Officer southern group tonight occur. Home two level.</t>
   </si>
   <si>
-    <t>1982-10-14</t>
-  </si>
-  <si>
-    <t>1987-11-25</t>
-  </si>
-  <si>
-    <t>Martin, Jones and Mcgee</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
     <t>Nicole</t>
   </si>
   <si>
@@ -511,9 +344,6 @@
     <t>2013-11-21</t>
   </si>
   <si>
-    <t>Christian, Thompson and Jenkins</t>
-  </si>
-  <si>
     <t>Curtis</t>
   </si>
   <si>
@@ -524,18 +354,6 @@
   </si>
   <si>
     <t>May employee fish parent. Itself white minute direction city. Attention rise after type teach.</t>
-  </si>
-  <si>
-    <t>2019-12-17</t>
-  </si>
-  <si>
-    <t>2000-12-02</t>
-  </si>
-  <si>
-    <t>Hunter, Barnes and Francis</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
   </si>
   <si>
     <t>Jennifer</t>
@@ -551,12 +369,6 @@
 Eye foreign form choice itself see. Always head American within husband ten.</t>
   </si>
   <si>
-    <t>1985-11-22</t>
-  </si>
-  <si>
-    <t>2003-11-28</t>
-  </si>
-  <si>
     <t>Fletcher-Erickson</t>
   </si>
   <si>
@@ -570,12 +382,6 @@
   </si>
   <si>
     <t>Inside light operation physical. Cover bad until experience cause girl. Occur she Republican particular company know but.</t>
-  </si>
-  <si>
-    <t>1986-04-13</t>
-  </si>
-  <si>
-    <t>1989-01-04</t>
   </si>
   <si>
     <t>Williams Ltd</t>
@@ -589,15 +395,6 @@
   <si>
     <t>Program partner moment several. Create ago Mrs arrive record.
 Pull chair role gun his I. Effect human institution system improve.</t>
-  </si>
-  <si>
-    <t>2010-02-12</t>
-  </si>
-  <si>
-    <t>2007-04-03</t>
-  </si>
-  <si>
-    <t>Mathis and Sons</t>
   </si>
   <si>
     <t>Anne</t>
@@ -614,18 +411,6 @@
 Though pass tree similar cut lose sister time. Direction back agreement.</t>
   </si>
   <si>
-    <t>2016-04-04</t>
-  </si>
-  <si>
-    <t>1997-12-02</t>
-  </si>
-  <si>
-    <t>Rodriguez, Atkins and Ryan</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
     <t>Ariana</t>
   </si>
   <si>
@@ -638,15 +423,6 @@
     <t>Realize she spend would its quite. Certainly agree chair them population. Set treat attention task. Seem production tonight glass indeed attention age.</t>
   </si>
   <si>
-    <t>2002-11-14</t>
-  </si>
-  <si>
-    <t>1977-12-24</t>
-  </si>
-  <si>
-    <t>Moran, Wright and Baker</t>
-  </si>
-  <si>
     <t>Richard</t>
   </si>
   <si>
@@ -659,16 +435,7 @@
     <t>Low test lot business eat. Tough upon clear special. Network fight art note risk.</t>
   </si>
   <si>
-    <t>1996-01-04</t>
-  </si>
-  <si>
     <t>2022-09-15</t>
-  </si>
-  <si>
-    <t>Perry, Anderson and Harris</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
   <si>
     <t>Juan</t>
@@ -684,15 +451,6 @@
 No matter after difference. Daughter fire pay brother item energy lawyer. Approach research money whether huge.</t>
   </si>
   <si>
-    <t>2006-01-21</t>
-  </si>
-  <si>
-    <t>2002-09-18</t>
-  </si>
-  <si>
-    <t>Phillips and Sons</t>
-  </si>
-  <si>
     <t>Wendy</t>
   </si>
   <si>
@@ -703,18 +461,6 @@
   </si>
   <si>
     <t>Particular record room available act side. Carry sort speak only black goal. Past throughout or success middle issue professional.</t>
-  </si>
-  <si>
-    <t>1986-08-07</t>
-  </si>
-  <si>
-    <t>1990-08-26</t>
-  </si>
-  <si>
-    <t>Cruz LLC</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
   </si>
   <si>
     <t>James</t>
@@ -730,18 +476,6 @@
 Actually thank true something line product natural. Develop dream local report. She throughout perform put more officer week.</t>
   </si>
   <si>
-    <t>1974-12-25</t>
-  </si>
-  <si>
-    <t>1980-08-08</t>
-  </si>
-  <si>
-    <t>Gaines, Harrington and Vargas</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>Miss</t>
   </si>
   <si>
@@ -755,18 +489,6 @@
 Run it at others than capital early check. Church themselves church sell. Win Democrat end create up defense.</t>
   </si>
   <si>
-    <t>1981-11-24</t>
-  </si>
-  <si>
-    <t>2001-11-20</t>
-  </si>
-  <si>
-    <t>Higgins, Frost and Flores</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
     <t>Stephanie</t>
   </si>
   <si>
@@ -777,15 +499,6 @@
   </si>
   <si>
     <t>Pm perhaps record course. Enough mother official during themselves. Rest sign because after memory charge though.</t>
-  </si>
-  <si>
-    <t>2016-12-04</t>
-  </si>
-  <si>
-    <t>2010-10-27</t>
-  </si>
-  <si>
-    <t>Bauer-Smith</t>
   </si>
   <si>
     <t>Jamie</t>
@@ -801,15 +514,6 @@
 Use police car future memory. Tell much mention possible.</t>
   </si>
   <si>
-    <t>1981-10-24</t>
-  </si>
-  <si>
-    <t>2003-06-25</t>
-  </si>
-  <si>
-    <t>Khan PLC</t>
-  </si>
-  <si>
     <t>Amber</t>
   </si>
   <si>
@@ -823,15 +527,6 @@
 Model specific purpose difficult improve four. Sister follow team truth both and southern.</t>
   </si>
   <si>
-    <t>1970-07-06</t>
-  </si>
-  <si>
-    <t>1995-12-11</t>
-  </si>
-  <si>
-    <t>Fernandez-Golden</t>
-  </si>
-  <si>
     <t>Louisiana</t>
   </si>
   <si>
@@ -847,12 +542,6 @@
     <t>2021-10-10</t>
   </si>
   <si>
-    <t>1991-02-27</t>
-  </si>
-  <si>
-    <t>Bryant-Wong</t>
-  </si>
-  <si>
     <t>Gina</t>
   </si>
   <si>
@@ -865,15 +554,6 @@
     <t>Like attorney mind bed. Window simply billion without paper culture seem free.</t>
   </si>
   <si>
-    <t>1994-03-12</t>
-  </si>
-  <si>
-    <t>1982-11-21</t>
-  </si>
-  <si>
-    <t>Chandler, Gonzalez and Phillips</t>
-  </si>
-  <si>
     <t>Philip</t>
   </si>
   <si>
@@ -884,15 +564,6 @@
   </si>
   <si>
     <t>From ever study ago section compare federal. Mention source oil account.</t>
-  </si>
-  <si>
-    <t>2007-10-25</t>
-  </si>
-  <si>
-    <t>2000-06-08</t>
-  </si>
-  <si>
-    <t>Zimmerman Group</t>
   </si>
   <si>
     <t>Laura</t>
@@ -908,18 +579,6 @@
 Exactly others whose across.</t>
   </si>
   <si>
-    <t>1985-09-25</t>
-  </si>
-  <si>
-    <t>1986-08-16</t>
-  </si>
-  <si>
-    <t>Gonzalez-Mcguire</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
     <t>Joe</t>
   </si>
   <si>
@@ -930,15 +589,6 @@
   </si>
   <si>
     <t>Right debate board drive religious into sound figure. Sort strong scientist all end beautiful ten. Window hope doctor far rule.</t>
-  </si>
-  <si>
-    <t>1971-12-07</t>
-  </si>
-  <si>
-    <t>2009-05-30</t>
-  </si>
-  <si>
-    <t>Molina-Ferguson</t>
   </si>
   <si>
     <t>Sara</t>
@@ -951,18 +601,6 @@
 Thought administration necessary career culture for business develop.</t>
   </si>
   <si>
-    <t>1997-11-23</t>
-  </si>
-  <si>
-    <t>1985-12-19</t>
-  </si>
-  <si>
-    <t>Schmidt and Sons</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
@@ -976,15 +614,6 @@
 Light music indicate movie no sound. Unit rich author law exist. Better woman million agreement leg lay end.</t>
   </si>
   <si>
-    <t>1992-11-04</t>
-  </si>
-  <si>
-    <t>2011-05-26</t>
-  </si>
-  <si>
-    <t>Edwards-Henderson</t>
-  </si>
-  <si>
     <t>Sarah</t>
   </si>
   <si>
@@ -992,12 +621,6 @@
   </si>
   <si>
     <t>Throughout cup bring list look. Alone feel capital too. Person television buy join concern.</t>
-  </si>
-  <si>
-    <t>1975-07-07</t>
-  </si>
-  <si>
-    <t>2012-04-07</t>
   </si>
   <si>
     <t>Barber and Sons</t>
@@ -1016,15 +639,6 @@
 Sing good guess happen medical author. Street environment least almost history exist lead. Alone win buy pretty something.</t>
   </si>
   <si>
-    <t>2010-03-29</t>
-  </si>
-  <si>
-    <t>1980-03-09</t>
-  </si>
-  <si>
-    <t>Young-Moore</t>
-  </si>
-  <si>
     <t>Jeanne</t>
   </si>
   <si>
@@ -1035,15 +649,6 @@
   </si>
   <si>
     <t>Purpose cause particularly development move lay sort. Local woman over. Write alone check economic thousand glass.</t>
-  </si>
-  <si>
-    <t>1978-04-02</t>
-  </si>
-  <si>
-    <t>1997-02-27</t>
-  </si>
-  <si>
-    <t>Garcia, Nelson and Murphy</t>
   </si>
   <si>
     <t>Austin</t>
@@ -1059,16 +664,7 @@
 Receive Democrat cell remain. Office course pattern six partner music. Section half fear visit child case commercial.</t>
   </si>
   <si>
-    <t>1976-01-18</t>
-  </si>
-  <si>
-    <t>1971-11-15</t>
-  </si>
-  <si>
     <t>Medina Inc</t>
-  </si>
-  <si>
-    <t>Indiana</t>
   </si>
   <si>
     <t>Amy</t>
@@ -1084,18 +680,6 @@
 Live near street follow box something anyone. Throughout already once traditional. Deep why office name visit board.</t>
   </si>
   <si>
-    <t>1975-08-08</t>
-  </si>
-  <si>
-    <t>2017-02-03</t>
-  </si>
-  <si>
-    <t>Dawson, Bennett and Miller</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Garcia</t>
   </si>
   <si>
@@ -1106,18 +690,6 @@
 Admit population while nearly smile.</t>
   </si>
   <si>
-    <t>2006-10-12</t>
-  </si>
-  <si>
-    <t>2002-03-01</t>
-  </si>
-  <si>
-    <t>Newman-Hutchinson</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -1131,15 +703,6 @@
 Down race smile feel Mr. Economic financial as agency.</t>
   </si>
   <si>
-    <t>1985-11-24</t>
-  </si>
-  <si>
-    <t>2012-09-09</t>
-  </si>
-  <si>
-    <t>Dickerson, Hicks and Prince</t>
-  </si>
-  <si>
     <t>Miranda</t>
   </si>
   <si>
@@ -1147,15 +710,6 @@
   </si>
   <si>
     <t>Middle PM increase boy identify friend. Raise green successful arm he. Mrs this shoulder piece story. Notice able different blood I employee treat.</t>
-  </si>
-  <si>
-    <t>2022-12-27</t>
-  </si>
-  <si>
-    <t>2014-06-17</t>
-  </si>
-  <si>
-    <t>Rich, Maldonado and Wright</t>
   </si>
   <si>
     <t>Kristin</t>
@@ -1171,15 +725,6 @@
 Message administration your give social. Everybody value game eight respond.</t>
   </si>
   <si>
-    <t>1993-04-30</t>
-  </si>
-  <si>
-    <t>Romero PLC</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
     <t>Walter</t>
   </si>
   <si>
@@ -1190,15 +735,6 @@
   </si>
   <si>
     <t>Environment eight three second. City possible model more.</t>
-  </si>
-  <si>
-    <t>2011-07-19</t>
-  </si>
-  <si>
-    <t>1981-06-10</t>
-  </si>
-  <si>
-    <t>Hudson-Callahan</t>
   </si>
 </sst>
 </file>
@@ -1563,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1632,30 +1168,30 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>6945</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1664,33 +1200,33 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3">
         <v>1066</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1699,33 +1235,33 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>5111</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1734,33 +1270,30 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>5104</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1769,33 +1302,33 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I6">
         <v>5001</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1804,10 +1337,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -1816,21 +1349,21 @@
         <v>6381</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1839,33 +1372,33 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I8">
         <v>6142</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1874,33 +1407,33 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I9">
         <v>4326</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1909,33 +1442,33 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I10">
         <v>2005</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1944,33 +1477,33 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>7983</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -1979,33 +1512,33 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>5960</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2014,33 +1547,33 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <v>2649</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2049,33 +1582,33 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I14">
         <v>2787</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -2084,33 +1617,33 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>5826</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -2119,33 +1652,33 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="I16">
         <v>7720</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -2154,33 +1687,30 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="I17">
         <v>1568</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2189,33 +1719,33 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="I18">
         <v>9935</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -2224,33 +1754,33 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>3820</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2259,33 +1789,33 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>8751</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -2294,33 +1824,33 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>3225</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2329,33 +1859,30 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I22">
         <v>2012</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -2364,33 +1891,30 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="I23">
         <v>2444</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="K23" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2399,33 +1923,33 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>5475</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2434,33 +1958,33 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="I25">
         <v>9831</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -2469,33 +1993,33 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="I26">
         <v>7764</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -2504,33 +2028,33 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="I27">
         <v>1556</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -2539,33 +2063,33 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="I28">
         <v>8247</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2574,33 +2098,33 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>2485</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -2609,33 +2133,33 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="I30">
         <v>6981</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -2644,33 +2168,33 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="I31">
         <v>4821</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -2679,33 +2203,30 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="I32">
         <v>3577</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -2714,33 +2235,33 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="G33" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="I33">
         <v>6459</v>
       </c>
       <c r="J33" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -2749,33 +2270,33 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="H34" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>7064</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2784,33 +2305,33 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="G35" t="s">
-        <v>266</v>
+        <v>163</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="I35">
         <v>9485</v>
       </c>
       <c r="J35" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="K35" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -2819,33 +2340,33 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="I36">
         <v>4158</v>
       </c>
       <c r="J36" t="s">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -2854,33 +2375,33 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="I37">
         <v>1378</v>
       </c>
       <c r="J37" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -2889,33 +2410,33 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="I38">
         <v>6479</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="D39">
         <v>7</v>
@@ -2924,33 +2445,33 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="G39" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="I39">
         <v>5828</v>
       </c>
       <c r="J39" t="s">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>181</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -2959,33 +2480,33 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="G40" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
       <c r="I40">
         <v>7366</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -2994,33 +2515,33 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>186</v>
       </c>
       <c r="G41" t="s">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="H41" t="s">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="I41">
         <v>3810</v>
       </c>
       <c r="J41" t="s">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -3029,33 +2550,30 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>315</v>
-      </c>
-      <c r="H42" t="s">
-        <v>316</v>
+        <v>69</v>
       </c>
       <c r="I42">
         <v>2689</v>
       </c>
       <c r="J42" t="s">
-        <v>317</v>
+        <v>190</v>
       </c>
       <c r="K42" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>318</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -3064,33 +2582,33 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="I43">
         <v>3554</v>
       </c>
       <c r="J43" t="s">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s">
-        <v>304</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3099,33 +2617,33 @@
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>328</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>329</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>330</v>
+        <v>56</v>
       </c>
       <c r="I44">
         <v>6689</v>
       </c>
       <c r="J44" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3134,33 +2652,33 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="G45" t="s">
-        <v>336</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>337</v>
+        <v>56</v>
       </c>
       <c r="I45">
         <v>3461</v>
       </c>
       <c r="J45" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="K45" t="s">
-        <v>339</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -3169,33 +2687,33 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="G46" t="s">
-        <v>344</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s">
-        <v>345</v>
+        <v>56</v>
       </c>
       <c r="I46">
         <v>5195</v>
       </c>
       <c r="J46" t="s">
-        <v>346</v>
+        <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>347</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>348</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>209</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -3204,33 +2722,30 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="G47" t="s">
-        <v>351</v>
-      </c>
-      <c r="H47" t="s">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="I47">
         <v>5345</v>
       </c>
       <c r="J47" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="K47" t="s">
-        <v>354</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>355</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>356</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>213</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -3239,33 +2754,33 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>214</v>
       </c>
       <c r="G48" t="s">
-        <v>359</v>
+        <v>99</v>
       </c>
       <c r="H48" t="s">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="I48">
         <v>1137</v>
       </c>
       <c r="J48" t="s">
-        <v>361</v>
+        <v>203</v>
       </c>
       <c r="K48" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
-        <v>348</v>
+        <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>363</v>
+        <v>216</v>
       </c>
       <c r="D49">
         <v>8</v>
@@ -3274,33 +2789,33 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>364</v>
+        <v>217</v>
       </c>
       <c r="G49" t="s">
-        <v>365</v>
+        <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>366</v>
+        <v>100</v>
       </c>
       <c r="I49">
         <v>9074</v>
       </c>
       <c r="J49" t="s">
-        <v>367</v>
+        <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>370</v>
+        <v>220</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -3309,33 +2824,33 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>221</v>
       </c>
       <c r="G50" t="s">
-        <v>372</v>
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="I50">
         <v>8257</v>
       </c>
       <c r="J50" t="s">
-        <v>373</v>
+        <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>374</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>377</v>
+        <v>224</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -3344,25 +2859,26 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>378</v>
+        <v>225</v>
       </c>
       <c r="G51" t="s">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="I51">
         <v>6019</v>
       </c>
       <c r="J51" t="s">
-        <v>381</v>
+        <v>203</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K51"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>